--- a/Dataset/Folds/Fold_4/Excel/12.xlsx
+++ b/Dataset/Folds/Fold_4/Excel/12.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="405">
   <si>
     <t>Doi</t>
   </si>
@@ -1116,6 +1116,167 @@
   </si>
   <si>
     <t>[Min%Liu%NULL%1,                          Qianyuan%Li%NULL%1,                          Jun%Zhou%NULL%1,                          Wen%Ai%NULL%1,                          Xiaoling%Zheng%NULL%1,                          Jingjing%Zeng%NULL%1,                          Yuwen%Liu%NULL%1,                          Xiying%Xiang%NULL%1,                          Rong%Guo%NULL%1,                          Xiaoyin%Li%NULL%1,                          Xiandi%Wu%NULL%1,                          Haiying%Xu%NULL%1,                          Ling%Jiang%NULL%1,                          Huaqin%Zhang%NULL%1,                          Jing%Chen%NULL%2,                          Lili%Tian%NULL%1,                          Jun%Luo%NULL%1,                          Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,                           Shaili%Gupta%NULL%2,                           Shaili%Gupta%NULL%0,                           Gary%Stack%NULL%1,                           Sheldon M.%Campbell%NULL%1,                           David R.%Peaper%NULL%2,                           David R.%Peaper%NULL%0,                           Louise M.%Dembry%NULL%1,                           Ann%Fisher%NULL%1,                           Asim F.%Tarabar%NULL%1,                           Michael%Kozal%NULL%1,                           Christopher B.%Ruser%NULL%1,                           Selvakumar%Subbian%NULL%8,                           Selvakumar%Subbian%NULL%0,                           Selvakumar%Subbian%NULL%0,                           Selvakumar%Subbian%NULL%0,                           Selvakumar%Subbian%NULL%0,                           Selvakumar%Subbian%NULL%0,                           Selvakumar%Subbian%NULL%0,                           Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,                           Isabelle%Podglajen%NULL%1,                           Maxime%Wack%NULL%1,                           Edouard%Flamarion%NULL%1,                           Tristan%Mirault%NULL%1,                           Guillaume%Goudot%NULL%1,                           Caroline%Hauw-Berlemont%NULL%2,                           Laetitia%Le%NULL%1,                           Eric%Caudron%NULL%1,                           Sophie%Carrabin%NULL%1,                           Julien%Rodary%NULL%1,                           Tatiana%Ribeyre%NULL%1,                           Laurent%Bélec%NULL%1,                           David%Veyer%NULL%1,                           Alexander J.%McAdam%NULL%7,                           Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,                           Rachel%Jennings%NULL%2,                           Rachel%Jennings%NULL%0,                           Brian%Hart%NULL%1,                           Gerard A.%Cangelosi%NULL%2,                           Gerard A.%Cangelosi%NULL%0,                           Rachel C.%Wood%NULL%1,                           Kevin%Wehber%NULL%2,                           Kevin%Wehber%NULL%0,                           Prateek%Verma%NULL%1,                           Deneen%Vojta%NULL%1,                           Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,                           Rose A.%Lee%NULL%1,                           Ghee Rye%Lee%NULL%1,                           Kate%Zulauf%NULL%1,                           James E.%Kirby%NULL%1,                           Ramy%Arnaout%NULL%1,                            C.%Callahan%null%1,                            R.% Lee%null%1,                            G.% Lee%null%1,                            K. E.% Zulauf%null%1,                            J. E.% Kirby%null%1,                            R. % Arnaout%null%1,                           C.%Callahan%null%1,                           R.% Lee%null%1,                           G.% Lee%null%1,                           K. E.% Zulauf%null%1,                           J. E.% Kirby%null%1,                           R. % Arnaout%null%1,          C.%Callahan%null%1,          R.% Lee%null%1,          G.% Lee%null%1,          K. E.% Zulauf%null%1,          J. E.% Kirby%null%1,          R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,                           Greta%Van Slyke%NULL%1,                           Dylan%Ehrbar%NULL%1,                           Klemen%Strle%NULL%1,                           Tugba%Yildirim%NULL%1,                           Dominick A.%Centurioni%NULL%1,                           Anne C.%Walsh%NULL%1,                           Andrew K.%Chang%NULL%1,                           Michael J.%Waxman%NULL%2,                           Michael J.%Waxman%NULL%0,                           Kirsten%St. George%NULL%1,                           Alexander J.%McAdam%NULL%0,                           Alexander J.%McAdam%NULL%0,                           Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,                           F%Turner%NULL%1,                           V%Slepnev%NULL%1,                           A%Bacelar%NULL%1,                           L%Deming%NULL%1,                           S%Kodeboyina%NULL%1,                           J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,                           Ashley E.%Kim%NULL%1,                           Naomi C.%Wilcox%NULL%1,                           Jennifer K.%Logue%NULL%1,                           Alex L.%Greninger%NULL%1,                           Janet A.%Englund%NULL%1,                           Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,                           A. P.%Barker%NULL%2,                           A. P.%Barker%NULL%0,                           D. R.%Hillyard%NULL%1,                           N.%Gilmore%NULL%1,                           J. W.%Barrett%NULL%1,                           R. R.%Orlandi%NULL%1,                           S. M.%Shakir%NULL%1,                           Alexander J.%McAdam%NULL%0,                           Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,                           Connie%Trieu%NULL%1,                           Sunil K%Pati%NULL%1,                           Misty%Latting%NULL%1,                           Joshua%Cooper%NULL%1,                           Maria C%Seleme%NULL%1,                           Sushma%Boppana%NULL%1,                           Nitin%Arora%NULL%1,                           William J%Britt%NULL%1,                           Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,                           Qianyuan%Li%NULL%1,                           Jun%Zhou%NULL%1,                           Wen%Ai%NULL%1,                           Xiaoling%Zheng%NULL%1,                           Jingjing%Zeng%NULL%1,                           Yuwen%Liu%NULL%1,                           Xiying%Xiang%NULL%1,                           Rong%Guo%NULL%1,                           Xiaoyin%Li%NULL%1,                           Xiandi%Wu%NULL%1,                           Haiying%Xu%NULL%1,                           Ling%Jiang%NULL%1,                           Huaqin%Zhang%NULL%1,                           Jing%Chen%NULL%2,                           Lili%Tian%NULL%1,                           Jun%Luo%NULL%1,                           Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%1,                            Shaili%Gupta%NULL%2,                            Shaili%Gupta%NULL%0,                            Gary%Stack%NULL%1,                            Sheldon M.%Campbell%NULL%1,                            David R.%Peaper%NULL%2,                            David R.%Peaper%NULL%0,                            Louise M.%Dembry%NULL%1,                            Ann%Fisher%NULL%1,                            Asim F.%Tarabar%NULL%1,                            Michael%Kozal%NULL%1,                            Christopher B.%Ruser%NULL%1,                            Selvakumar%Subbian%NULL%8,                            Selvakumar%Subbian%NULL%0,                            Selvakumar%Subbian%NULL%0,                            Selvakumar%Subbian%NULL%0,                            Selvakumar%Subbian%NULL%0,                            Selvakumar%Subbian%NULL%0,                            Selvakumar%Subbian%NULL%0,                            Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%1,                            Isabelle%Podglajen%NULL%1,                            Maxime%Wack%NULL%1,                            Edouard%Flamarion%NULL%1,                            Tristan%Mirault%NULL%1,                            Guillaume%Goudot%NULL%1,                            Caroline%Hauw-Berlemont%NULL%2,                            Laetitia%Le%NULL%1,                            Eric%Caudron%NULL%1,                            Sophie%Carrabin%NULL%1,                            Julien%Rodary%NULL%1,                            Tatiana%Ribeyre%NULL%1,                            Laurent%Bélec%NULL%1,                            David%Veyer%NULL%1,                            Alexander J.%McAdam%NULL%7,                            Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%1,                            Rachel%Jennings%NULL%2,                            Rachel%Jennings%NULL%0,                            Brian%Hart%NULL%1,                            Gerard A.%Cangelosi%NULL%2,                            Gerard A.%Cangelosi%NULL%0,                            Rachel C.%Wood%NULL%1,                            Kevin%Wehber%NULL%2,                            Kevin%Wehber%NULL%0,                            Prateek%Verma%NULL%1,                            Deneen%Vojta%NULL%1,                            Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%1,                            Rose A.%Lee%NULL%1,                            Ghee Rye%Lee%NULL%1,                            Kate%Zulauf%NULL%1,                            James E.%Kirby%NULL%1,                            Ramy%Arnaout%NULL%1,                             C.%Callahan%null%1,                             R.% Lee%null%1,                             G.% Lee%null%1,                             K. E.% Zulauf%null%1,                             J. E.% Kirby%null%1,                             R. % Arnaout%null%1,                            C.%Callahan%null%1,                            R.% Lee%null%1,                            G.% Lee%null%1,                            K. E.% Zulauf%null%1,                            J. E.% Kirby%null%1,                            R. % Arnaout%null%1,           C.%Callahan%null%1,           R.% Lee%null%1,           G.% Lee%null%1,           K. E.% Zulauf%null%1,           J. E.% Kirby%null%1,           R. % Arnaout%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%1,                            Greta%Van Slyke%NULL%1,                            Dylan%Ehrbar%NULL%1,                            Klemen%Strle%NULL%1,                            Tugba%Yildirim%NULL%1,                            Dominick A.%Centurioni%NULL%1,                            Anne C.%Walsh%NULL%1,                            Andrew K.%Chang%NULL%1,                            Michael J.%Waxman%NULL%2,                            Michael J.%Waxman%NULL%0,                            Kirsten%St. George%NULL%1,                            Alexander J.%McAdam%NULL%0,                            Alexander J.%McAdam%NULL%0,                            Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%1,                            F%Turner%NULL%1,                            V%Slepnev%NULL%1,                            A%Bacelar%NULL%1,                            L%Deming%NULL%1,                            S%Kodeboyina%NULL%1,                            J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%1,                            Ashley E.%Kim%NULL%1,                            Naomi C.%Wilcox%NULL%1,                            Jennifer K.%Logue%NULL%1,                            Alex L.%Greninger%NULL%1,                            Janet A.%Englund%NULL%1,                            Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%1,                            A. P.%Barker%NULL%2,                            A. P.%Barker%NULL%0,                            D. R.%Hillyard%NULL%1,                            N.%Gilmore%NULL%1,                            J. W.%Barrett%NULL%1,                            R. R.%Orlandi%NULL%1,                            S. M.%Shakir%NULL%1,                            Alexander J.%McAdam%NULL%0,                            Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%1,                            Connie%Trieu%NULL%1,                            Sunil K%Pati%NULL%1,                            Misty%Latting%NULL%1,                            Joshua%Cooper%NULL%1,                            Maria C%Seleme%NULL%1,                            Sushma%Boppana%NULL%1,                            Nitin%Arora%NULL%1,                            William J%Britt%NULL%1,                            Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%1,                            Qianyuan%Li%NULL%1,                            Jun%Zhou%NULL%1,                            Wen%Ai%NULL%1,                            Xiaoling%Zheng%NULL%1,                            Jingjing%Zeng%NULL%1,                            Yuwen%Liu%NULL%1,                            Xiying%Xiang%NULL%1,                            Rong%Guo%NULL%1,                            Xiaoyin%Li%NULL%1,                            Xiandi%Wu%NULL%1,                            Haiying%Xu%NULL%1,                            Ling%Jiang%NULL%1,                            Huaqin%Zhang%NULL%1,                            Jing%Chen%NULL%2,                            Lili%Tian%NULL%1,                            Jun%Luo%NULL%1,                            Chunhua%Luo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel G.%Federman%NULL%0, Shaili%Gupta%NULL%2, Shaili%Gupta%NULL%0, Gary%Stack%NULL%1, Sheldon M.%Campbell%NULL%1, David R.%Peaper%NULL%2, David R.%Peaper%NULL%0, Louise M.%Dembry%NULL%1, Ann%Fisher%NULL%1, Asim F.%Tarabar%NULL%1, Michael%Kozal%NULL%1, Christopher B.%Ruser%NULL%1, Selvakumar%Subbian%NULL%8, Selvakumar%Subbian%NULL%0, Selvakumar%Subbian%NULL%0, Selvakumar%Subbian%NULL%0, Selvakumar%Subbian%NULL%0, Selvakumar%Subbian%NULL%0, Selvakumar%Subbian%NULL%0, Selvakumar%Subbian%NULL%0]</t>
+  </si>
+  <si>
+    <t>Public Library of Science</t>
+  </si>
+  <si>
+    <t>[Hélène%Péré%NULL%0, Isabelle%Podglajen%NULL%1, Maxime%Wack%NULL%1, Edouard%Flamarion%NULL%1, Tristan%Mirault%NULL%1, Guillaume%Goudot%NULL%1, Caroline%Hauw-Berlemont%NULL%2, Laetitia%Le%NULL%1, Eric%Caudron%NULL%1, Sophie%Carrabin%NULL%1, Julien%Rodary%NULL%1, Tatiana%Ribeyre%NULL%1, Laurent%Bélec%NULL%1, David%Veyer%NULL%1, Alexander J.%McAdam%NULL%7, Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Society for Microbiology</t>
+  </si>
+  <si>
+    <t>[Yuan-Po%Tu%NULL%0, Rachel%Jennings%NULL%2, Rachel%Jennings%NULL%0, Brian%Hart%NULL%1, Gerard A.%Cangelosi%NULL%2, Gerard A.%Cangelosi%NULL%0, Rachel C.%Wood%NULL%1, Kevin%Wehber%NULL%2, Kevin%Wehber%NULL%0, Prateek%Verma%NULL%1, Deneen%Vojta%NULL%3, Ethan M.%Berke%NULL%1]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>Nasal-Swab Testing Misses Patients with Low SARS-CoV-2 Viral Loads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="P1"&gt;The urgent need for large-scale diagnostic testing for SARS-CoV-2 has prompted pursuit of sample-collection methods of sufficient sensitivity to replace sampling of the nasopharynx (NP).
+ Among these alternatives is collection of nasal-swab samples, which can be performed by the patient, avoiding the need for healthcare personnel and personal protective equipment.
+ Previous studies have reached opposing conclusions regarding whether nasal sampling is concordant or discordant with NP.
+ To resolve this disagreement, we compared nasal and NP specimens collected by healthcare workers in a cohort consisting of individuals clinically suspected of COVID-19 and outpatients known to be SARS-CoV-2 RT-PCR positive undergoing follow-up.
+ We investigated three different transport conditions, including traditional viral transport media (VTM) and dry swabs, for each of two different nasal-swab collection protocols on a total of 308 study participants, and compared categorical results and Ct values to those from standard NP swabs collected at the same time from the same patients.
+ All testing was performed by RT-PCR on the Abbott SARS-CoV-2 RealTime EUA (limit of detection [LoD], 100 copies viral genomic RNA/mL transport medium).
+ We found high concordance (Cohen’s kappa &amp;gt;0.8) only for patients with viral loads above 1,000 copies/mL.
+ Those with viral loads below 1,000 copies/mL, the majority in our cohort, exhibited low concordance (Cohen’s kappa = 0.49); most of these would have been missed by nasal testing alone.
+ Previous reports of high concordance may have resulted from use of assays with higher LoD (≥1,000 copies/mL).
+ These findings counsel caution in use of nasal testing in healthcare settings and contact-tracing efforts, as opposed to screening of asymptomatic, low-prevalence, low-risk populations.
+ Nasal testing is an adjunct, not a replacement, for NP.
+</t>
+  </si>
+  <si>
+    <t>[Cody%Callahan%NULL%0, Rose A.%Lee%NULL%1, Ghee Rye%Lee%NULL%1, Kate%Zulauf%NULL%1, James E.%Kirby%NULL%1, Ramy%Arnaout%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7310639</t>
+  </si>
+  <si>
+    <t>Cold Spring Harbor Laboratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifying SARS-CoV-2 infections through aggressive diagnostic testing remains critical to tracking and curbing the spread of the COVID-19 pandemic.
+ Collection of nasopharyngeal swabs (NPS), the preferred sample type for SARS-CoV-2 detection, has become difficult due to the dramatic increase in testing and consequent supply strain.
+</t>
+  </si>
+  <si>
+    <t>[Sara B.%Griesemer%NULL%0, Greta%Van Slyke%NULL%1, Dylan%Ehrbar%NULL%1, Klemen%Strle%NULL%1, Tugba%Yildirim%NULL%1, Dominick A.%Centurioni%NULL%1, Anne C.%Walsh%NULL%1, Andrew K.%Chang%NULL%1, Michael J.%Waxman%NULL%2, Michael J.%Waxman%NULL%0, Kirsten%St. George%NULL%1, Alexander J.%McAdam%NULL%0, Alexander J.%McAdam%NULL%0, Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We compared self-collected oral fluid swab specimens with and without clinician supervision, clinician-supervised self-collected mid-turbinate (nasal) swab specimens, and clinician-collected nasopharyngeal swab specimens for the detection of SARS-CoV-2. Supervised oral fluid and nasal swab specimens performed similarly to clinician-collected nasopharyngeal swab specimens.
+ No sample type could detect SARS-CoV-2 infections amongst all positive participants.
+</t>
+  </si>
+  <si>
+    <t>[N%Kojima%nkojima@ucla.edu%0, F%Turner%NULL%1, V%Slepnev%NULL%1, A%Bacelar%NULL%1, L%Deming%NULL%1, S%Kodeboyina%NULL%1, J D%Klausner%NULL%1]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This diagnostic study compares unsupervised home self-collected midnasal swabs vs clinician-collected nasopharyngeal swabs for the detection of severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2).
+</t>
+  </si>
+  <si>
+    <t>[Denise J.%McCulloch%NULL%0, Ashley E.%Kim%NULL%1, Naomi C.%Wilcox%NULL%1, Jennifer K.%Logue%NULL%1, Alex L.%Greninger%NULL%1, Janet A.%Englund%NULL%0, Helen Y.%Chu%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Medical Association</t>
+  </si>
+  <si>
+    <t>We prospectively compared health care worker-collected nasopharyngeal swabs (NPS) to self-collected anterior nasal swabs (ANS) and straight saliva for the diagnosis of coronavirus disease 2019 (COVID-19) in 354 patients.
+ The percent positive agreement between NPS and ANS or saliva was 86.3% (95% confidence interval [CI], 76.7 to 92.9%) and 93.8% (95% CI, 86.0 to 97.9%), respectively.
+ The percent negative agreement was 99.6% (95% CI, 98.0 to 100.0%) for NPS versus ANS and 97.8% (95% CI, 95.3 to 99.</t>
+  </si>
+  <si>
+    <t>[K. E.%Hanson%NULL%0, A. P.%Barker%NULL%2, A. P.%Barker%NULL%0, D. R.%Hillyard%NULL%1, N.%Gilmore%NULL%1, J. W.%Barrett%NULL%1, R. R.%Orlandi%NULL%1, S. M.%Shakir%NULL%1, Alexander J.%McAdam%NULL%0, Alexander J.%McAdam%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing of paired mid-turbinate (MT) nasal and nasopharyngeal (NP) swabs, collected by trained personnel from 40 patients with COVID-19 showed more NP (76/95, 80%) than MT swabs tested positive (61/95, 64%; p=0.02).
+ Among samples collected a week after study enrollment, fewer MT than NP samples were positive (45% vs 76%; p=0.001).
+</t>
+  </si>
+  <si>
+    <t>[Swetha%Pinninti%spinninti@peds.uab.edu%0, Connie%Trieu%NULL%1, Sunil K%Pati%NULL%1, Misty%Latting%NULL%1, Joshua%Cooper%NULL%1, Maria C%Seleme%NULL%1, Sushma%Boppana%NULL%1, Nitin%Arora%NULL%1, William J%Britt%NULL%1, Suresh B%Boppana%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              The value of swab types on the detection of SARS-CoV-2 from patients during infection late stage is studied.
+</t>
+  </si>
+  <si>
+    <t>[Min%Liu%NULL%0, Qianyuan%Li%NULL%1, Jun%Zhou%NULL%1, Wen%Ai%NULL%1, Xiaoling%Zheng%NULL%1, Jingjing%Zeng%NULL%1, Yuwen%Liu%NULL%1, Xiying%Xiang%NULL%1, Rong%Guo%NULL%1, Xiaoyin%Li%NULL%1, Xiandi%Wu%NULL%1, Haiying%Xu%NULL%1, Ling%Jiang%NULL%1, Huaqin%Zhang%NULL%1, Jing%Chen%NULL%0, Lili%Tian%NULL%1, Jun%Luo%NULL%1, Chunhua%Luo%NULL%2]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
   </si>
 </sst>
 </file>
@@ -1456,7 +1617,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1468,10 +1629,10 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3">
@@ -1482,25 +1643,25 @@
         <v>43959.0</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
         <v>36</v>
@@ -1520,7 +1681,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1532,10 +1693,10 @@
         <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5">
@@ -1552,7 +1713,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1564,10 +1725,10 @@
         <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6">
@@ -1578,28 +1739,28 @@
         <v>43996.0</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>385</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="E6" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>388</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7">
@@ -1613,10 +1774,10 @@
         <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>390</v>
       </c>
       <c r="E7" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1628,10 +1789,10 @@
         <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8">
@@ -1645,10 +1806,10 @@
         <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="E8" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1660,10 +1821,10 @@
         <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9">
@@ -1677,10 +1838,10 @@
         <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>395</v>
       </c>
       <c r="E9" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1692,10 +1853,10 @@
         <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10">
@@ -1709,10 +1870,10 @@
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>398</v>
       </c>
       <c r="E10" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1724,10 +1885,10 @@
         <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11">
@@ -1741,10 +1902,10 @@
         <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>400</v>
       </c>
       <c r="E11" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="F11" t="s">
         <v>69</v>
@@ -1756,10 +1917,10 @@
         <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12">
@@ -1773,10 +1934,10 @@
         <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>402</v>
       </c>
       <c r="E12" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -1788,10 +1949,10 @@
         <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>269</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
